--- a/Code/Results/Cases/Case_1_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_146/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2827889036785507</v>
+        <v>0.1424735206852858</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.179065998354076</v>
+        <v>0.1075218374974156</v>
       </c>
       <c r="E2">
-        <v>3.937192330811669</v>
+        <v>0.9508387259566859</v>
       </c>
       <c r="F2">
-        <v>16.44059751039589</v>
+        <v>2.576855933070419</v>
       </c>
       <c r="G2">
-        <v>0.0004312899205711086</v>
+        <v>0.002375260358286178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>24.52082921805851</v>
+        <v>5.476121970505687</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2426906437504783</v>
+        <v>0.132922669392002</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6827529147082458</v>
+        <v>0.09944267508923588</v>
       </c>
       <c r="E3">
-        <v>3.044927982473226</v>
+        <v>0.8282990960588279</v>
       </c>
       <c r="F3">
-        <v>10.4157328888694</v>
+        <v>2.395756840799038</v>
       </c>
       <c r="G3">
-        <v>0.0005232883636694071</v>
+        <v>0.002393342844594032</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.3047067259798</v>
+        <v>4.798433118031454</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198928623400462</v>
+        <v>0.1271330594934312</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.526986166204253</v>
+        <v>0.09503150773295488</v>
       </c>
       <c r="E4">
-        <v>2.654333384949936</v>
+        <v>0.7530571070131202</v>
       </c>
       <c r="F4">
-        <v>8.388681545486463</v>
+        <v>2.29177132131386</v>
       </c>
       <c r="G4">
-        <v>0.0005613814903653247</v>
+        <v>0.002404901984110808</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.75469687366459</v>
+        <v>4.383540310581708</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2108143096984776</v>
+        <v>0.124792503172543</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4761096949478798</v>
+        <v>0.09336411875966633</v>
       </c>
       <c r="E5">
-        <v>2.509690149201603</v>
+        <v>0.7223868391943995</v>
       </c>
       <c r="F5">
-        <v>7.706747995048914</v>
+        <v>2.251114324543266</v>
       </c>
       <c r="G5">
-        <v>0.0005753803009618298</v>
+        <v>0.002409728540122307</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.82926938531156</v>
+        <v>4.214704252232792</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.209316920669707</v>
+        <v>0.124404988218032</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4681983476061333</v>
+        <v>0.09309488664497678</v>
       </c>
       <c r="E6">
-        <v>2.486306380063255</v>
+        <v>0.7172933280688198</v>
       </c>
       <c r="F6">
-        <v>7.599692788029017</v>
+        <v>2.244464312228587</v>
       </c>
       <c r="G6">
-        <v>0.0005776414399700383</v>
+        <v>0.002410537037506991</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.68052641385012</v>
+        <v>4.186681503038528</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2197697009455908</v>
+        <v>0.1271014179985173</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5262602507502834</v>
+        <v>0.0950085038802797</v>
       </c>
       <c r="E7">
-        <v>2.652335967231167</v>
+        <v>0.7526435217259007</v>
       </c>
       <c r="F7">
-        <v>8.379027593964992</v>
+        <v>2.291216173841519</v>
       </c>
       <c r="G7">
-        <v>0.000561575020075268</v>
+        <v>0.002404966604760998</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.74185280263566</v>
+        <v>4.381262459459151</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2682417492750204</v>
+        <v>0.1391648776732239</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9395152724082436</v>
+        <v>0.1046171998833927</v>
       </c>
       <c r="E8">
-        <v>3.560390312576246</v>
+        <v>0.9085824366776478</v>
       </c>
       <c r="F8">
-        <v>13.60129858651516</v>
+        <v>2.512858060101564</v>
       </c>
       <c r="G8">
-        <v>0.0004714557035712065</v>
+        <v>0.002381401294057062</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.81253399052801</v>
+        <v>5.242160787821092</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2682417492750204</v>
+        <v>0.1634162523099576</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9395152724082436</v>
+        <v>0.1281959620443445</v>
       </c>
       <c r="E9">
-        <v>3.560390312576246</v>
+        <v>1.214773457444011</v>
       </c>
       <c r="F9">
-        <v>13.60129858651516</v>
+        <v>3.009204117294473</v>
       </c>
       <c r="G9">
-        <v>0.0004714557035712065</v>
+        <v>0.00233874770379932</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.81253399052801</v>
+        <v>6.94338190416272</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2682417492750204</v>
+        <v>0.1816030026128033</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9395152724082436</v>
+        <v>0.148956342421144</v>
       </c>
       <c r="E10">
-        <v>3.560390312576246</v>
+        <v>1.440623796129159</v>
       </c>
       <c r="F10">
-        <v>13.60129858651516</v>
+        <v>3.418071009080109</v>
       </c>
       <c r="G10">
-        <v>0.0004714557035712065</v>
+        <v>0.002309486177406484</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.81253399052801</v>
+        <v>8.206386836440799</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2682417492750204</v>
+        <v>0.1899586220687723</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9395152724082436</v>
+        <v>0.1592762868475575</v>
       </c>
       <c r="E11">
-        <v>3.560390312576246</v>
+        <v>1.543724221261954</v>
       </c>
       <c r="F11">
-        <v>13.60129858651516</v>
+        <v>3.615218325157912</v>
       </c>
       <c r="G11">
-        <v>0.0004714557035712065</v>
+        <v>0.002296603623999105</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.81253399052801</v>
+        <v>8.785068669136649</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2682417492750204</v>
+        <v>0.1931346474524531</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9395152724082436</v>
+        <v>0.1633216129475272</v>
       </c>
       <c r="E12">
-        <v>3.560390312576246</v>
+        <v>1.582831794396697</v>
       </c>
       <c r="F12">
-        <v>13.60129858651516</v>
+        <v>3.691613079526007</v>
       </c>
       <c r="G12">
-        <v>0.0004714557035712065</v>
+        <v>0.002291785128198869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.81253399052801</v>
+        <v>9.00490653907309</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2682417492750204</v>
+        <v>0.1924501012305626</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9395152724082436</v>
+        <v>0.1624440793620749</v>
       </c>
       <c r="E13">
-        <v>3.560390312576246</v>
+        <v>1.574406122682319</v>
       </c>
       <c r="F13">
-        <v>13.60129858651516</v>
+        <v>3.675080490328071</v>
       </c>
       <c r="G13">
-        <v>0.0004714557035712065</v>
+        <v>0.002292820245307073</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.81253399052801</v>
+        <v>8.957527397084107</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2682417492750204</v>
+        <v>0.1902196758566532</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9395152724082436</v>
+        <v>0.1596062767239061</v>
       </c>
       <c r="E14">
-        <v>3.560390312576246</v>
+        <v>1.546940224353023</v>
       </c>
       <c r="F14">
-        <v>13.60129858651516</v>
+        <v>3.621467700192511</v>
       </c>
       <c r="G14">
-        <v>0.0004714557035712065</v>
+        <v>0.002296206014776558</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.81253399052801</v>
+        <v>8.803140105795137</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2682417492750204</v>
+        <v>0.188855032920145</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9395152724082436</v>
+        <v>0.1578862842723652</v>
       </c>
       <c r="E15">
-        <v>3.560390312576246</v>
+        <v>1.530125556306587</v>
       </c>
       <c r="F15">
-        <v>13.60129858651516</v>
+        <v>3.588859007953374</v>
       </c>
       <c r="G15">
-        <v>0.0004714557035712065</v>
+        <v>0.002298287635342544</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.81253399052801</v>
+        <v>8.708668448662252</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2682417492750204</v>
+        <v>0.1810586080036671</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9395152724082436</v>
+        <v>0.1483004962890391</v>
       </c>
       <c r="E16">
-        <v>3.560390312576246</v>
+        <v>1.433894345872773</v>
       </c>
       <c r="F16">
-        <v>13.60129858651516</v>
+        <v>3.405422779271476</v>
       </c>
       <c r="G16">
-        <v>0.0004714557035712065</v>
+        <v>0.002310336557128673</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.81253399052801</v>
+        <v>8.168660944957139</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2682417492750204</v>
+        <v>0.1762969098381575</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9395152724082436</v>
+        <v>0.1426521796687723</v>
       </c>
       <c r="E17">
-        <v>3.560390312576246</v>
+        <v>1.374961327013665</v>
       </c>
       <c r="F17">
-        <v>13.60129858651516</v>
+        <v>3.295840743611905</v>
       </c>
       <c r="G17">
-        <v>0.0004714557035712065</v>
+        <v>0.00231783672526873</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.81253399052801</v>
+        <v>7.838517725208021</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2682417492750204</v>
+        <v>0.1735658543289134</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9395152724082436</v>
+        <v>0.1394851394193495</v>
       </c>
       <c r="E18">
-        <v>3.560390312576246</v>
+        <v>1.341097589705157</v>
       </c>
       <c r="F18">
-        <v>13.60129858651516</v>
+        <v>3.233853093034753</v>
       </c>
       <c r="G18">
-        <v>0.0004714557035712065</v>
+        <v>0.002322191084635539</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.81253399052801</v>
+        <v>7.649010211833172</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2682417492750204</v>
+        <v>0.1726424940451636</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9395152724082436</v>
+        <v>0.1384265334330621</v>
       </c>
       <c r="E19">
-        <v>3.560390312576246</v>
+        <v>1.329637169889111</v>
       </c>
       <c r="F19">
-        <v>13.60129858651516</v>
+        <v>3.213039940541933</v>
       </c>
       <c r="G19">
-        <v>0.0004714557035712065</v>
+        <v>0.002323672397915146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.81253399052801</v>
+        <v>7.5849086710503</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2682417492750204</v>
+        <v>0.1768029983294781</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9395152724082436</v>
+        <v>0.1432449142310759</v>
       </c>
       <c r="E20">
-        <v>3.560390312576246</v>
+        <v>1.381231337671551</v>
       </c>
       <c r="F20">
-        <v>13.60129858651516</v>
+        <v>3.307397238718551</v>
       </c>
       <c r="G20">
-        <v>0.0004714557035712065</v>
+        <v>0.002317034144777328</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.81253399052801</v>
+        <v>7.873621722137671</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2682417492750204</v>
+        <v>0.1908744811963601</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9395152724082436</v>
+        <v>0.1604359847505634</v>
       </c>
       <c r="E21">
-        <v>3.560390312576246</v>
+        <v>1.555005724824639</v>
       </c>
       <c r="F21">
-        <v>13.60129858651516</v>
+        <v>3.637166746173193</v>
       </c>
       <c r="G21">
-        <v>0.0004714557035712065</v>
+        <v>0.002295209922799281</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.81253399052801</v>
+        <v>8.84846738730846</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2682417492750204</v>
+        <v>0.2001406197714175</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.9395152724082436</v>
+        <v>0.1724779874925559</v>
       </c>
       <c r="E22">
-        <v>3.560390312576246</v>
+        <v>1.668967533220808</v>
       </c>
       <c r="F22">
-        <v>13.60129858651516</v>
+        <v>3.862897757224914</v>
       </c>
       <c r="G22">
-        <v>0.0004714557035712065</v>
+        <v>0.002281294462021718</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.81253399052801</v>
+        <v>9.489743557682459</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2682417492750204</v>
+        <v>0.1951887044031508</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9395152724082436</v>
+        <v>0.165973163959876</v>
       </c>
       <c r="E23">
-        <v>3.560390312576246</v>
+        <v>1.608103340039975</v>
       </c>
       <c r="F23">
-        <v>13.60129858651516</v>
+        <v>3.741439732502556</v>
       </c>
       <c r="G23">
-        <v>0.0004714557035712065</v>
+        <v>0.002288690188957878</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.81253399052801</v>
+        <v>9.147063596260296</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2682417492750204</v>
+        <v>0.1765741754572758</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.9395152724082436</v>
+        <v>0.1429766898226887</v>
       </c>
       <c r="E24">
-        <v>3.560390312576246</v>
+        <v>1.378396611944567</v>
       </c>
       <c r="F24">
-        <v>13.60129858651516</v>
+        <v>3.302169403665857</v>
       </c>
       <c r="G24">
-        <v>0.0004714557035712065</v>
+        <v>0.002317396859210234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.81253399052801</v>
+        <v>7.857750290605054</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2682417492750204</v>
+        <v>0.1567912892315917</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9395152724082436</v>
+        <v>0.121255340534816</v>
       </c>
       <c r="E25">
-        <v>3.560390312576246</v>
+        <v>1.131834713763794</v>
       </c>
       <c r="F25">
-        <v>13.60129858651516</v>
+        <v>2.867665339579503</v>
       </c>
       <c r="G25">
-        <v>0.0004714557035712065</v>
+        <v>0.002349915068826353</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.81253399052801</v>
+        <v>6.481252232435963</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_146/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424735206852858</v>
+        <v>0.2827889036780675</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1075218374974156</v>
+        <v>1.179065998353707</v>
       </c>
       <c r="E2">
-        <v>0.9508387259566859</v>
+        <v>3.937192330811556</v>
       </c>
       <c r="F2">
-        <v>2.576855933070419</v>
+        <v>16.44059751039541</v>
       </c>
       <c r="G2">
-        <v>0.002375260358286178</v>
+        <v>0.0004312899205250077</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.476121970505687</v>
+        <v>24.52082921805771</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.132922669392002</v>
+        <v>0.242690643750521</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09944267508923588</v>
+        <v>0.6827529147080327</v>
       </c>
       <c r="E3">
-        <v>0.8282990960588279</v>
+        <v>3.044927982473283</v>
       </c>
       <c r="F3">
-        <v>2.395756840799038</v>
+        <v>10.41573288886957</v>
       </c>
       <c r="G3">
-        <v>0.002393342844594032</v>
+        <v>0.0005232883637537337</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.798433118031454</v>
+        <v>18.30470672597991</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271330594934312</v>
+        <v>0.2198928623401173</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09503150773295488</v>
+        <v>0.5269861662044661</v>
       </c>
       <c r="E4">
-        <v>0.7530571070131202</v>
+        <v>2.654333384949965</v>
       </c>
       <c r="F4">
-        <v>2.29177132131386</v>
+        <v>8.388681545486691</v>
       </c>
       <c r="G4">
-        <v>0.002404901984110808</v>
+        <v>0.0005613814902742931</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.383540310581708</v>
+        <v>15.75469687366476</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124792503172543</v>
+        <v>0.210814309697696</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09336411875966633</v>
+        <v>0.4761096949479082</v>
       </c>
       <c r="E5">
-        <v>0.7223868391943995</v>
+        <v>2.509690149201532</v>
       </c>
       <c r="F5">
-        <v>2.251114324543266</v>
+        <v>7.706747995048744</v>
       </c>
       <c r="G5">
-        <v>0.002409728540122307</v>
+        <v>0.0005753803008816746</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.214704252232792</v>
+        <v>14.82926938531131</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.124404988218032</v>
+        <v>0.2093169206696928</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09309488664497678</v>
+        <v>0.4681983476060481</v>
       </c>
       <c r="E6">
-        <v>0.7172933280688198</v>
+        <v>2.486306380063212</v>
       </c>
       <c r="F6">
-        <v>2.244464312228587</v>
+        <v>7.599692788029074</v>
       </c>
       <c r="G6">
-        <v>0.002410537037506991</v>
+        <v>0.0005776414399616604</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.186681503038528</v>
+        <v>14.68052641384983</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271014179985173</v>
+        <v>0.2197697009463155</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0950085038802797</v>
+        <v>0.526260250750326</v>
       </c>
       <c r="E7">
-        <v>0.7526435217259007</v>
+        <v>2.65233596723121</v>
       </c>
       <c r="F7">
-        <v>2.291216173841519</v>
+        <v>8.379027593964878</v>
       </c>
       <c r="G7">
-        <v>0.002404966604760998</v>
+        <v>0.0005615750201271056</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.381262459459151</v>
+        <v>15.74185280263549</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391648776732239</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1046171998833927</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E8">
-        <v>0.9085824366776478</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F8">
-        <v>2.512858060101564</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G8">
-        <v>0.002381401294057062</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.242160787821092</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634162523099576</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1281959620443445</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E9">
-        <v>1.214773457444011</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F9">
-        <v>3.009204117294473</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G9">
-        <v>0.00233874770379932</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.94338190416272</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1816030026128033</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.148956342421144</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E10">
-        <v>1.440623796129159</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F10">
-        <v>3.418071009080109</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G10">
-        <v>0.002309486177406484</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.206386836440799</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899586220687723</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1592762868475575</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E11">
-        <v>1.543724221261954</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F11">
-        <v>3.615218325157912</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G11">
-        <v>0.002296603623999105</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.785068669136649</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1931346474524531</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1633216129475272</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E12">
-        <v>1.582831794396697</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F12">
-        <v>3.691613079526007</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G12">
-        <v>0.002291785128198869</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.00490653907309</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1924501012305626</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1624440793620749</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E13">
-        <v>1.574406122682319</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F13">
-        <v>3.675080490328071</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G13">
-        <v>0.002292820245307073</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.957527397084107</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1902196758566532</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1596062767239061</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E14">
-        <v>1.546940224353023</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F14">
-        <v>3.621467700192511</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G14">
-        <v>0.002296206014776558</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.803140105795137</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.188855032920145</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1578862842723652</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E15">
-        <v>1.530125556306587</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F15">
-        <v>3.588859007953374</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G15">
-        <v>0.002298287635342544</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.708668448662252</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810586080036671</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1483004962890391</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E16">
-        <v>1.433894345872773</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F16">
-        <v>3.405422779271476</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G16">
-        <v>0.002310336557128673</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.168660944957139</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1762969098381575</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1426521796687723</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E17">
-        <v>1.374961327013665</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F17">
-        <v>3.295840743611905</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G17">
-        <v>0.00231783672526873</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.838517725208021</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735658543289134</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1394851394193495</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E18">
-        <v>1.341097589705157</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F18">
-        <v>3.233853093034753</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G18">
-        <v>0.002322191084635539</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.649010211833172</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726424940451636</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1384265334330621</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E19">
-        <v>1.329637169889111</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F19">
-        <v>3.213039940541933</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G19">
-        <v>0.002323672397915146</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.5849086710503</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768029983294781</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1432449142310759</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E20">
-        <v>1.381231337671551</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F20">
-        <v>3.307397238718551</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G20">
-        <v>0.002317034144777328</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.873621722137671</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908744811963601</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1604359847505634</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E21">
-        <v>1.555005724824639</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F21">
-        <v>3.637166746173193</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G21">
-        <v>0.002295209922799281</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.84846738730846</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2001406197714175</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1724779874925559</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E22">
-        <v>1.668967533220808</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F22">
-        <v>3.862897757224914</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G22">
-        <v>0.002281294462021718</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.489743557682459</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951887044031508</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.165973163959876</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E23">
-        <v>1.608103340039975</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F23">
-        <v>3.741439732502556</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G23">
-        <v>0.002288690188957878</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.147063596260296</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765741754572758</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1429766898226887</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E24">
-        <v>1.378396611944567</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F24">
-        <v>3.302169403665857</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G24">
-        <v>0.002317396859210234</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.857750290605054</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1567912892315917</v>
+        <v>0.268241749276271</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.121255340534816</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E25">
-        <v>1.131834713763794</v>
+        <v>3.560390312576345</v>
       </c>
       <c r="F25">
-        <v>2.867665339579503</v>
+        <v>13.60129858651544</v>
       </c>
       <c r="G25">
-        <v>0.002349915068826353</v>
+        <v>0.000471455703572321</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.481252232435963</v>
+        <v>21.81253399052864</v>
       </c>
       <c r="N25">
         <v>0</v>
